--- a/infrastructureinventoryproject/infrastructureinventoryapp/static/FormatSample.xlsx
+++ b/infrastructureinventoryproject/infrastructureinventoryapp/static/FormatSample.xlsx
@@ -81,15 +81,6 @@
     <t>Purchase Order</t>
   </si>
   <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>Next Hardware Support Date</t>
-  </si>
-  <si>
-    <t>Base Warranty</t>
-  </si>
-  <si>
     <t>CPU</t>
   </si>
   <si>
@@ -114,12 +105,6 @@
     <t>Primary Application</t>
   </si>
   <si>
-    <t>Is Virtual Machine</t>
-  </si>
-  <si>
-    <t>Environment</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -139,6 +124,21 @@
   </si>
   <si>
     <t>Network</t>
+  </si>
+  <si>
+    <t>Is Virtual Machine (TRUE / FALSE)</t>
+  </si>
+  <si>
+    <t>Environment (Prod / Dev / QA)</t>
+  </si>
+  <si>
+    <t>Start Date (MM/DD/YY)</t>
+  </si>
+  <si>
+    <t>Next Hardware Support Date (MM/DD/YY)</t>
+  </si>
+  <si>
+    <t>Base Warranty (MM/DD/YY)</t>
   </si>
 </sst>
 </file>
@@ -520,15 +520,15 @@
   <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="9" max="9" width="26.5" customWidth="1"/>
     <col min="10" max="10" width="16.83203125" customWidth="1"/>
@@ -542,46 +542,46 @@
     <col min="20" max="20" width="16.6640625" customWidth="1"/>
     <col min="21" max="21" width="21.5" customWidth="1"/>
     <col min="22" max="22" width="21" customWidth="1"/>
-    <col min="23" max="23" width="31.1640625" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" customWidth="1"/>
+    <col min="23" max="23" width="37.33203125" customWidth="1"/>
+    <col min="24" max="24" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>11</v>
@@ -611,28 +611,28 @@
         <v>19</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:29">

--- a/infrastructureinventoryproject/infrastructureinventoryapp/static/FormatSample.xlsx
+++ b/infrastructureinventoryproject/infrastructureinventoryapp/static/FormatSample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve"> Signiant Agent</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Base Warranty (MM/DD/YY)</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -517,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -546,7 +549,7 @@
     <col min="24" max="24" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1">
+    <row r="1" spans="1:30" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -634,8 +637,11 @@
       <c r="AC1" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="AD1" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:30">
       <c r="A2" t="s">
         <v>0</v>
       </c>
